--- a/Tests/Aufgaben_Bewertung.xlsx
+++ b/Tests/Aufgaben_Bewertung.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="144" windowWidth="28356" windowHeight="12456"/>
+    <workbookView xWindow="192" yWindow="144" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$Q$17</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -18,15 +21,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
-    <t>Schwierigkeitsgrad</t>
-  </si>
-  <si>
     <t>Versuch</t>
   </si>
   <si>
-    <t>Token</t>
-  </si>
-  <si>
     <t>Mittel</t>
   </si>
   <si>
@@ -34,9 +31,6 @@
   </si>
   <si>
     <t>Dauer ⌀</t>
-  </si>
-  <si>
-    <t>Token ⌀</t>
   </si>
   <si>
     <t>Kosten ⌀</t>
@@ -144,9 +138,6 @@
 • MapperTool: "numeric"-Modus ausführen mit Klassifizierung (z. B. natürliche Brüche, Quantile) mit z.B. 5 Klassen und Farbskala z.B. blau → rot. </t>
   </si>
   <si>
-    <t>Genutze Werkzeuge</t>
-  </si>
-  <si>
     <t>https://smith.langchain.com/public/0f5eda14-4d0e-474d-81f5-1f6d3b64f840/r</t>
   </si>
   <si>
@@ -306,6 +297,18 @@
   </si>
   <si>
     <t xml:space="preserve">Anzahl maximaler Iterationen (15) wurde erreicht. </t>
+  </si>
+  <si>
+    <t>Schwierigkeit</t>
+  </si>
+  <si>
+    <t>Tokens</t>
+  </si>
+  <si>
+    <t>Tokens ⌀</t>
+  </si>
+  <si>
+    <t>Genutzte Werkzeuge</t>
   </si>
 </sst>
 </file>
@@ -349,14 +352,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -387,6 +382,14 @@
     <font>
       <sz val="18"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,7 +545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,196 +553,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,783 +1004,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="1"/>
-    <col min="13" max="13" width="16.44140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5546875" style="1"/>
-    <col min="16" max="16" width="42.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="40" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="55" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="55.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="78.109375" style="1" customWidth="1"/>
     <col min="18" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="31.8" thickBot="1">
+      <c r="A1" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="Q1" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="102.6" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="117">
-      <c r="A2" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11">
+      <c r="G2" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="33">
         <v>24.99</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="23">
         <f>AVERAGE(J2:J4)</f>
         <v>43.366666666666667</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="9">
         <v>6492</v>
       </c>
-      <c r="M2" s="55">
+      <c r="M2" s="23">
         <f>AVERAGE(L2:L4)</f>
         <v>5219.666666666667</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="9">
         <v>0.02</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="23">
         <f>AVERAGE(N2:N4)</f>
         <v>1.6333333333333335E-2</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="140.4">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="18">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="4">
+        <v>75.56</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="3">
+        <v>4290</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="111" customHeight="1" thickBot="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="19">
+        <v>3</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="7">
+        <v>29.55</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="7">
+        <v>4877</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O4" s="24"/>
+      <c r="P4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="52.8" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="163.80000000000001">
-      <c r="A3" s="36"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="12">
-        <v>75.56</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="11">
-        <v>4290</v>
-      </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="11">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="152.4" customHeight="1" thickBot="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="15">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="18">
-        <v>29.55</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="18">
-        <v>4877</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="70.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="E5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="17">
         <v>1</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23">
+      <c r="G5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="9">
         <v>39.24</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="25">
         <f>AVERAGE(J5:J7)</f>
         <v>28.17</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="9">
         <v>10663</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="25">
         <f>AVERAGE(L5:L7)</f>
         <v>9462</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="9">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="25">
         <f>AVERAGE(N5:N7)</f>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="175.8" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="18">
+        <v>2</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20.71</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="3">
+        <v>8580</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="55.8" customHeight="1" thickBot="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="19">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="7">
+        <v>24.56</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="7">
+        <v>9143</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O7" s="27"/>
+      <c r="P7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="163.80000000000001">
-      <c r="A6" s="36"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="12" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="101.4" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="11">
-        <v>20.71</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="11">
-        <v>8580</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="11">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="70.8" thickBot="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="15">
-        <v>3</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="18">
-        <v>24.56</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="18">
-        <v>9143</v>
-      </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="18">
-        <v>2.7E-2</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="70.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="D8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="45">
         <v>1</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="29">
+      <c r="G8" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="45"/>
+      <c r="J8" s="12">
         <v>170.96</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="22">
         <f>AVERAGE(J8:J11)</f>
         <v>129.11666666666665</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="12">
         <v>34487</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="22">
         <f>AVERAGE(L8:L11)</f>
         <v>24094.333333333332</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="12">
         <v>0.1</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="22">
         <f>AVERAGE(N8:N11)</f>
         <v>6.6333333333333341E-2</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="30" t="s">
+      <c r="P8" s="45"/>
+      <c r="Q8" s="47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="126" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="18">
+        <v>2</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3">
+        <v>96.57</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="13">
+        <v>19674</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.4" hidden="1" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="18">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" ht="52.2" customHeight="1" thickBot="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="19">
+        <v>3</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="7">
+        <v>119.82</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="10">
+        <v>18122</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="292.8" customHeight="1">
+      <c r="A12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="117">
-      <c r="A9" s="36"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="11">
-        <v>96.57</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="31">
-        <v>19674</v>
-      </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="14" t="s">
+      <c r="C12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="14.4" hidden="1" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="9">
-        <v>3</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="64.2" customHeight="1" thickBot="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="15">
-        <v>3</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="18">
-        <v>119.82</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="25">
-        <v>18122</v>
-      </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="25">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="306.60000000000002" customHeight="1">
-      <c r="A12" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="26">
+      <c r="E12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="45">
         <v>1</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="33">
+      <c r="G12" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="14">
         <v>300.58</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="34">
         <f>AVERAGE(J12:J14)</f>
         <v>233.28333333333333</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="15">
         <v>43932</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="34">
         <f>AVERAGE(L12:L14)</f>
         <v>38256</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="15">
         <v>0.13</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="34">
         <f>AVERAGE(N12:N14)</f>
         <v>0.12</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="95.4" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="3">
+        <v>159.15</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="4">
+        <v>19685</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="114.6" customHeight="1" thickBot="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="19">
+        <v>3</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="140.4">
-      <c r="A13" s="62"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="9">
-        <v>2</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11">
-        <v>159.15</v>
-      </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="12">
-        <v>19685</v>
-      </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="198.6" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="64" t="s">
+      <c r="I14" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="7">
+        <v>240.12</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="7">
+        <v>51151</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="117">
+      <c r="A15" s="23"/>
+      <c r="B15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="57">
-        <v>240.12</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="57">
-        <v>51151</v>
-      </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="57">
-        <v>0.17</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="117">
-      <c r="A15" s="62"/>
-      <c r="B15" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1</v>
+      </c>
+      <c r="G15" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="65">
+      <c r="J15" s="36">
         <v>307.54000000000002</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="34">
         <f>AVERAGE(J15:J17)</f>
         <v>254.12</v>
       </c>
-      <c r="L15" s="65">
+      <c r="L15" s="36">
         <v>21148</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="34">
         <f>AVERAGE(L15:L17)</f>
         <v>19949</v>
       </c>
-      <c r="N15" s="65">
+      <c r="N15" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="34">
         <f>AVERAGE(N15:N17)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="70.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="18">
+        <v>2</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="16">
+        <v>138.46</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="16">
+        <v>16094</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="14" t="s">
+    </row>
+    <row r="17" spans="1:18" ht="226.8" customHeight="1" thickBot="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="19">
+        <v>3</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="37">
+        <v>316.36</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="37">
+        <v>22605</v>
+      </c>
+      <c r="M17" s="27"/>
+      <c r="N17" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="O17" s="27"/>
+      <c r="P17" s="40" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="70.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="9">
-        <v>2</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="35">
-        <v>138.46</v>
-      </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="35">
-        <v>16094</v>
-      </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="35">
-        <v>0.05</v>
-      </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="268.2" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="9">
-        <v>3</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="66">
-        <v>316.36</v>
-      </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="66">
-        <v>22605</v>
-      </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="66">
-        <v>0.08</v>
-      </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>74</v>
+      <c r="Q17" s="41" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="23.4">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="23.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="23.4">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
@@ -1881,6 +1849,32 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="C8:C11"/>
@@ -1892,32 +1886,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O15:O17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q3" r:id="rId1"/>
@@ -1933,9 +1901,11 @@
     <hyperlink ref="Q15" r:id="rId11"/>
     <hyperlink ref="Q16" r:id="rId12"/>
     <hyperlink ref="Q17" r:id="rId13"/>
+    <hyperlink ref="Q2" r:id="rId14"/>
+    <hyperlink ref="Q12" r:id="rId15" display="https://smith.langchain.com/public/2296c521-a83d-43f5-86ec-6d7677108237/r_x000a_"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="18" orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>
 
